--- a/labs/lab_05/data/out_C2.xlsx
+++ b/labs/lab_05/data/out_C2.xlsx
@@ -708,10 +708,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6310068017692045</v>
+        <v>0.631007</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03428731872008595</v>
+        <v>0.034287</v>
       </c>
     </row>
     <row r="3">
@@ -719,10 +719,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1140709962928624</v>
+        <v>0.114071</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3707228800848362</v>
+        <v>0.370723</v>
       </c>
     </row>
     <row r="4">
@@ -730,10 +730,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1569487095671469</v>
+        <v>0.156949</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8510930737669861</v>
+        <v>0.851093</v>
       </c>
     </row>
     <row r="5">
@@ -741,10 +741,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05191255606022493</v>
+        <v>0.051913</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0893279203313988</v>
+        <v>0.089328</v>
       </c>
     </row>
     <row r="6">
@@ -752,10 +752,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.08921596911777718</v>
+        <v>0.089216</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8619407453505374</v>
+        <v>0.861941</v>
       </c>
     </row>
     <row r="7">
@@ -763,10 +763,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5724729863999031</v>
+        <v>0.572473</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3649716661575075</v>
+        <v>0.364972</v>
       </c>
     </row>
     <row r="8">
@@ -774,10 +774,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.452545732969828</v>
+        <v>0.452546</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1523907675348188</v>
+        <v>0.152391</v>
       </c>
     </row>
     <row r="9">
@@ -785,10 +785,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05275232568846877</v>
+        <v>0.052752</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02464057603157033</v>
+        <v>0.024641</v>
       </c>
     </row>
   </sheetData>
@@ -1050,66 +1050,66 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.6310068017692045</v>
+        <v>0.631007</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03428731872008595</v>
+        <v>0.034287</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1140709962928624</v>
+        <v>0.114071</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3707228800848362</v>
+        <v>0.370723</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1569487095671469</v>
+        <v>0.156949</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8510930737669861</v>
+        <v>0.851093</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.05191255606022493</v>
+        <v>0.051913</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0893279203313988</v>
+        <v>0.089328</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.08921596911777718</v>
+        <v>0.089216</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8619407453505374</v>
+        <v>0.861941</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.5724729863999031</v>
+        <v>0.572473</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3649716661575075</v>
+        <v>0.364972</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.452545732969828</v>
+        <v>0.452546</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1523907675348188</v>
+        <v>0.152391</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.05275232568846877</v>
+        <v>0.052752</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02464057603157033</v>
+        <v>0.024641</v>
       </c>
     </row>
   </sheetData>
